--- a/DD2090FFC_DepthAI_4-camera_FFC/Docs/Assembly Outputs/BOM/BOM-DD2090_4CAM_FFC_ACTIVE_BOM(Production_BMO085).xlsx
+++ b/DD2090FFC_DepthAI_4-camera_FFC/Docs/Assembly Outputs/BOM/BOM-DD2090_4CAM_FFC_ACTIVE_BOM(Production_BMO085).xlsx
@@ -264,13 +264,13 @@
     <t>Texas Instruments</t>
   </si>
   <si>
-    <t>DF40HC(3.0)-100DS-0.4V_SoM-KB_A, DF40HC(3.0)-100DS-0.4V_SoM-KB_B</t>
+    <t>SoM-PRO_A Receptacle, SoM-PRO_B Receptacle</t>
   </si>
   <si>
     <t>J1, J3</t>
   </si>
   <si>
-    <t>OAK-SoM-Pro-S3 base board conn. A, OAK-SoM-Pro-S3 base board conn. B</t>
+    <t>CONN RCPT 100POS 0.4MM SMD GOLD</t>
   </si>
   <si>
     <t>Hirose</t>
@@ -279,10 +279,10 @@
     <t>DF40HC(3.0)-100DS-0.4V(58)</t>
   </si>
   <si>
-    <t>CON_A_SoM-Pro-KB_DF40HC-3.0-100DS-0.4V_minpad, CON_B_SoM-Pro-KB_DF40HC-3.0-100DS-0.4V_minpad</t>
-  </si>
-  <si>
-    <t>CMP-038-000000-6, CMP-038-000001-5</t>
+    <t>CON_A_BW2099_SoM_DF40HC-3.0-100DS-0.4V_minpad, CON_B_BW2099_SoM_DF40HC-3.0-100DS-0.4V_minpad</t>
+  </si>
+  <si>
+    <t>DF40HC(3.0)-100DS-0.4V_SoM-PRO_A, DF40HC(3.0)-100DS-0.4V_SoM-PRO_B</t>
   </si>
   <si>
     <t>PJ-050AH or NEB21R</t>
